--- a/processed_data/problem_1/line_9.xlsx
+++ b/processed_data/problem_1/line_9.xlsx
@@ -476,7 +476,7 @@
         <v>275</v>
       </c>
       <c r="E2" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -500,7 +500,7 @@
         <v>275</v>
       </c>
       <c r="E3" t="n">
-        <v>43200</v>
+        <v>13500</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         <v>275</v>
       </c>
       <c r="E4" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         <v>275</v>
       </c>
       <c r="E5" t="n">
-        <v>50400</v>
+        <v>15750</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
@@ -572,7 +572,7 @@
         <v>275</v>
       </c>
       <c r="E6" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
         <v>275</v>
       </c>
       <c r="E7" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
         <v>275</v>
       </c>
       <c r="E8" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -644,7 +644,7 @@
         <v>275</v>
       </c>
       <c r="E9" t="n">
-        <v>36000</v>
+        <v>11250</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>275</v>
       </c>
       <c r="E10" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -692,7 +692,7 @@
         <v>275</v>
       </c>
       <c r="E11" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>275</v>
       </c>
       <c r="E12" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
@@ -740,7 +740,7 @@
         <v>275</v>
       </c>
       <c r="E13" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -764,7 +764,7 @@
         <v>275</v>
       </c>
       <c r="E14" t="n">
-        <v>21600</v>
+        <v>6750</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
         <v>275</v>
       </c>
       <c r="E15" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
@@ -812,7 +812,7 @@
         <v>275</v>
       </c>
       <c r="E16" t="n">
-        <v>4320</v>
+        <v>1350</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
@@ -836,7 +836,7 @@
         <v>275</v>
       </c>
       <c r="E17" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
@@ -860,7 +860,7 @@
         <v>275</v>
       </c>
       <c r="E18" t="n">
-        <v>10080</v>
+        <v>3150</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
